--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbiza\OneDrive\Área de Trabalho\projeto individual\Projeto_individual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37BC1B2A-EC82-47BB-90CF-79F6659FDF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0FCF96-CAB9-4153-A713-855AF27190B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{7FBE479E-541D-4B3E-A46F-BD95F1DB1F9B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>Backlog</t>
   </si>
@@ -62,21 +62,12 @@
     <t>Aba home</t>
   </si>
   <si>
-    <t>Aba game</t>
-  </si>
-  <si>
     <t>Aba história</t>
   </si>
   <si>
     <t>Aba Sinopse</t>
   </si>
   <si>
-    <t>Aba login</t>
-  </si>
-  <si>
-    <t>Aba cadastro</t>
-  </si>
-  <si>
     <t>Documentação</t>
   </si>
   <si>
@@ -95,33 +86,15 @@
     <t>CSS</t>
   </si>
   <si>
-    <t>Aba de introdução com banner e título</t>
-  </si>
-  <si>
     <t>Aba de apresentação de como conheci o livro</t>
   </si>
   <si>
     <t>Apresentação da história do livro</t>
   </si>
   <si>
-    <t>Aba com simulador de jogo</t>
-  </si>
-  <si>
-    <t>Aba com input para inscrição no site</t>
-  </si>
-  <si>
-    <t>Aba com input login no site</t>
-  </si>
-  <si>
-    <t>Documento com contexto, justificativa, backlog, escopo...</t>
-  </si>
-  <si>
     <t>Site com a organização do projeto</t>
   </si>
   <si>
-    <t>Modelo com as tabelas de dados e pontuação no jogo</t>
-  </si>
-  <si>
     <t>Criar e organizar github com os arquivos atualizados</t>
   </si>
   <si>
@@ -134,9 +107,6 @@
     <t>Script BD</t>
   </si>
   <si>
-    <t>Realizar a integração entre as páginas de cadastro, login, jogo e o banco de dados</t>
-  </si>
-  <si>
     <t>Funcional</t>
   </si>
   <si>
@@ -165,6 +135,48 @@
   </si>
   <si>
     <t>GG</t>
+  </si>
+  <si>
+    <t>Aba Teste de Personalidade</t>
+  </si>
+  <si>
+    <t>Aba com teste interativo</t>
+  </si>
+  <si>
+    <t>Aba Gráficos dinâmicos</t>
+  </si>
+  <si>
+    <t>Aba de exposição do gráfico com os resultados registrados de todos os usuários</t>
+  </si>
+  <si>
+    <t>Aba resultado teste</t>
+  </si>
+  <si>
+    <t>total=</t>
+  </si>
+  <si>
+    <t>Aba contato</t>
+  </si>
+  <si>
+    <t>Aba com informações para contatar o desenvolvedor</t>
+  </si>
+  <si>
+    <t>Aba de introdução com banner, título e navbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aba com o resultado individual do teste </t>
+  </si>
+  <si>
+    <t>Realizar a integração entre a página de teste e o banco de dados</t>
+  </si>
+  <si>
+    <t>Documento com contexto, justificativa, backlog, requisitos e restrições</t>
+  </si>
+  <si>
+    <t>Modelo com as tabelas de dados do resultado do teste</t>
+  </si>
+  <si>
+    <t>Criar scricpt no MySQL para comportar as tabelas com os dados captados no teste</t>
   </si>
 </sst>
 </file>
@@ -220,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -510,11 +522,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -576,6 +601,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -583,9 +617,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -596,13 +627,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE4C1FF"/>
       <color rgb="FFCC79FF"/>
       <color rgb="FFB337FF"/>
       <color rgb="FFC465FF"/>
       <color rgb="FF9B37FF"/>
       <color rgb="FFB20BFD"/>
       <color rgb="FFDCA3FF"/>
-      <color rgb="FFE4C1FF"/>
       <color rgb="FF93C472"/>
     </mruColors>
   </colors>
@@ -914,13 +945,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F90D97B-1D1A-42D6-853D-52EFA08FAD44}">
-  <dimension ref="B1:G18"/>
+  <dimension ref="B1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="59.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" customWidth="1"/>
@@ -930,18 +961,18 @@
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="2:7" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="2:7" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="2:7" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
@@ -961,290 +992,313 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G5" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G6" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" s="15" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G8" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="2:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="C13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="F13" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="G13" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G14" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="4">
+    <row r="16" spans="2:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="16" t="s">
+    <row r="18" spans="2:7" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="G18" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G18">
-        <f>SUM(G4:G17)</f>
-        <v>67</v>
+    <row r="19" spans="2:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="23">
+        <f>SUM(G4:G18)</f>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1257,12 +1311,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="58bd19be-68b1-440c-82af-6d4de24fec6c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1475,17 +1528,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="58bd19be-68b1-440c-82af-6d4de24fec6c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A83F57D-DE55-4BD9-ADEA-381AF50AD196}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57E694D9-DA2C-4784-9F2C-2F6482D6BA53}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="3ffc9a63-5890-437d-bab6-67d84705b086"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1510,18 +1573,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57E694D9-DA2C-4784-9F2C-2F6482D6BA53}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A83F57D-DE55-4BD9-ADEA-381AF50AD196}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="58bd19be-68b1-440c-82af-6d4de24fec6c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="3ffc9a63-5890-437d-bab6-67d84705b086"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>